--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafaaly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D67728-89D6-7546-ABD7-878D2A93210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D19668-21B1-964E-A3BF-28F49F5200AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{5837E192-74A2-43E6-A295-3450656F88D6}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,20 +1343,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ee0760f-5820-4722-a484-79d2bd6eac05" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ee0760f-5820-4722-a484-79d2bd6eac05" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,6 +1548,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94001F35-AC73-43AF-B68D-DC73E0F66FA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE91FBA-06CE-4A72-BB96-939704E673A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1559,14 +1567,6 @@
     <ds:schemaRef ds:uri="6ee0760f-5820-4722-a484-79d2bd6eac05"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94001F35-AC73-43AF-B68D-DC73E0F66FA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
